--- a/数据整理/stocks/A股/深证主板/002696-百洋股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002696-百洋股份.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,37 +462,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -502,74 +482,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002871</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0667</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002872</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +514,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,14 +554,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002696-百洋股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002696-百洋股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -554,6 +571,138 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013360</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>002871</t>
         </is>
       </c>
